--- a/biology/Médecine/Pierre_Kamina/Pierre_Kamina.xlsx
+++ b/biology/Médecine/Pierre_Kamina/Pierre_Kamina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dr Pierre Kamina (né le 9 septembre 1934 à Ouagadougou au Burkina Faso) est un professeur d'anatomie de l'Université de Poitiers et l'auteur d'un grand nombre d'ouvrages d'anatomie. Il étudie à l'orphelinat le Foyer des Métis de Bingerville, en Côte d'Ivoire, entre 1943 et 1948. Il sort major en 1948 du concours des bourses de Côte d'Ivoire et part faire ses études secondaires en France.
 </t>
@@ -511,7 +523,9 @@
           <t>Principales œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anatomie Gynécologique et Obstétricale (Maloine, 1974). Couronné par l'Académie de Médecine
 Explorations fonctionnelles en obstétrique (Maloine, 1977).
@@ -551,7 +565,9 @@
           <t>Distinctions et carrière professionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en médecine (Bordeaux, 1963)
 Professeur agrégé d'Anatomie (Poitiers, 1971)
